--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5B2EF6-7C36-4DAA-B23B-39E7145CD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BBC97-630D-4BE5-86CA-09187649602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,10 +73,10 @@
     <t>x</t>
   </si>
   <si>
-    <t>***** = {x for n*x, when n,x are natural numbers}</t>
-  </si>
-  <si>
-    <t>multiples(n)</t>
+    <t>*****(n) = {x for n*x, when n,x are natural numbers}</t>
+  </si>
+  <si>
+    <t>multiples</t>
   </si>
   <si>
     <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
@@ -91,9 +91,6 @@
     <t>Every natural number has an infinite list of *****</t>
   </si>
   <si>
-    <t>multiples</t>
-  </si>
-  <si>
     <t>***** ***** = Multiples that are the same for two or more numbers</t>
   </si>
   <si>
@@ -106,16 +103,22 @@
     <t>same</t>
   </si>
   <si>
+    <t>Abbreviate of lcm</t>
+  </si>
+  <si>
+    <t>least common multiple</t>
+  </si>
+  <si>
     <t>***** = Min(Common_Multiples(a,b))</t>
   </si>
   <si>
     <t>lcm(a,b)</t>
   </si>
   <si>
-    <t>min(common_multiples(a,b))</t>
-  </si>
-  <si>
-    <t>Min(Common_Multiples(a,b)) = *****</t>
+    <t>lcm(a,b) = *****(common_multiples(a,b))</t>
+  </si>
+  <si>
+    <t>min</t>
   </si>
   <si>
     <t>max(a,b)</t>
@@ -127,18 +130,36 @@
     <t>infinity</t>
   </si>
   <si>
+    <t>lcm(a,b) is between ***** and a*b</t>
+  </si>
+  <si>
+    <t>lcm(a,b) is between max(a,b) and *****</t>
+  </si>
+  <si>
     <t>a*b</t>
   </si>
   <si>
+    <t>gcf(a,b) ***** lcm(a,b) when a=b</t>
+  </si>
+  <si>
     <t>=</t>
   </si>
   <si>
+    <t>gcf(a,b) = lcm(a,b) when a=*****</t>
+  </si>
+  <si>
     <t>b</t>
   </si>
   <si>
+    <t>gcf(a,b) ***** lcm(a,b) when not a=b</t>
+  </si>
+  <si>
     <t>&lt;</t>
   </si>
   <si>
+    <t>gcf(a,b) &lt; lcm(a,b) when not a=*****</t>
+  </si>
+  <si>
     <t>a and b are prime numbers =&gt; lcm(a,b)=*****</t>
   </si>
   <si>
@@ -157,31 +178,10 @@
     <t>200812</t>
   </si>
   <si>
-    <t>lcm(a,b) is between max(a,b) and *****</t>
-  </si>
-  <si>
-    <t>lcm(a,b) is between ***** and a*b</t>
-  </si>
-  <si>
-    <t>Abbreviate of lcm</t>
-  </si>
-  <si>
-    <t>lcm(a,b) = *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b) ***** lcm(a,b) when a=b</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = lcm(a,b) when a=*****</t>
-  </si>
-  <si>
-    <t>gcf(a,b) ***** lcm(a,b) when not a=b</t>
-  </si>
-  <si>
-    <t>gcf(a,b) &lt; lcm(a,b) when not a=*****</t>
-  </si>
-  <si>
-    <t>least common multiple</t>
+    <t>Min(Common_Multiples(a,b)) = Max(*****,*****)</t>
+  </si>
+  <si>
+    <t>a,b</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,8 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -857,10 +857,10 @@
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -877,10 +877,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -897,10 +897,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -917,10 +917,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -937,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -957,10 +957,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -977,10 +977,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -997,10 +997,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1017,10 +1017,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1037,10 +1037,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1057,10 +1057,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1077,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1097,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1117,10 +1117,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1137,10 +1137,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1157,10 +1157,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1177,10 +1177,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Mathematics\Numbers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4BBC97-630D-4BE5-86CA-09187649602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13767FAE-FD59-46E1-9289-10A27DF68F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>Id</t>
   </si>
@@ -109,9 +109,6 @@
     <t>least common multiple</t>
   </si>
   <si>
-    <t>***** = Min(Common_Multiples(a,b))</t>
-  </si>
-  <si>
     <t>lcm(a,b)</t>
   </si>
   <si>
@@ -121,18 +118,15 @@
     <t>min</t>
   </si>
   <si>
+    <t>infinity</t>
+  </si>
+  <si>
+    <t>lcm(a,b) is between ***** and a*b</t>
+  </si>
+  <si>
     <t>max(a,b)</t>
   </si>
   <si>
-    <t>Max(Common_Multiples(a,b)) = *****</t>
-  </si>
-  <si>
-    <t>infinity</t>
-  </si>
-  <si>
-    <t>lcm(a,b) is between ***** and a*b</t>
-  </si>
-  <si>
     <t>lcm(a,b) is between max(a,b) and *****</t>
   </si>
   <si>
@@ -178,10 +172,13 @@
     <t>200812</t>
   </si>
   <si>
-    <t>Min(Common_Multiples(a,b)) = Max(*****,*****)</t>
-  </si>
-  <si>
-    <t>a,b</t>
+    <t>l*****(a,b) = Min(Common_Multiples(a,b))</t>
+  </si>
+  <si>
+    <t>common_multiples(a,b) is between max(a,b) and *****</t>
+  </si>
+  <si>
+    <t>common_multiples(a,b) is between ***** and infinity</t>
   </si>
 </sst>
 </file>
@@ -644,7 +641,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -917,10 +914,10 @@
         <v>14</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -937,16 +934,16 @@
         <v>14</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -960,13 +957,13 @@
         <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1012</v>
       </c>
@@ -977,10 +974,10 @@
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -997,10 +994,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -1017,10 +1014,10 @@
         <v>14</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -1037,10 +1034,10 @@
         <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -1057,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1077,10 +1074,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1097,10 +1094,10 @@
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1117,10 +1114,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1137,10 +1134,10 @@
         <v>14</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1157,10 +1154,10 @@
         <v>14</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1177,10 +1174,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1286,6 +1218,7 @@
         </is>
       </c>
     </row>
+    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,170 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Multiple is a product of ***** a natural number by any other natural number</t>
-  </si>
-  <si>
-    <t>multiplying</t>
-  </si>
-  <si>
-    <t>200811</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Multiple is a product of multiplying a natural number by any other ***** number</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Multiples(n) = {***** for n*x, when n,x are natural numbers}</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>*****(n) = {x for n*x, when n,x are natural numbers}</t>
-  </si>
-  <si>
-    <t>multiples</t>
-  </si>
-  <si>
-    <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
-  </si>
-  <si>
-    <t>Every natural number has an ***** list of multiples</t>
-  </si>
-  <si>
-    <t>infinite</t>
-  </si>
-  <si>
-    <t>Every natural number has an infinite list of *****</t>
-  </si>
-  <si>
-    <t>***** ***** = Multiples that are the same for two or more numbers</t>
-  </si>
-  <si>
-    <t>common multiples</t>
-  </si>
-  <si>
-    <t>Common Multiples = Multiples that are the ***** for two or more numbers</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>Abbreviate of lcm</t>
-  </si>
-  <si>
-    <t>least common multiple</t>
-  </si>
-  <si>
-    <t>l*****(a,b) = Min(Common_Multiples(a,b))</t>
-  </si>
-  <si>
-    <t>lcm</t>
-  </si>
-  <si>
-    <t>lcm(a,b) = *****(common_multiples(a,b))</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>common_multiples(a,b) is between ***** and infinity</t>
-  </si>
-  <si>
-    <t>max(a,b)</t>
-  </si>
-  <si>
-    <t>common_multiples(a,b) is between max(a,b) and *****</t>
-  </si>
-  <si>
-    <t>infinity</t>
-  </si>
-  <si>
-    <t>lcm(a,b) is between ***** and a*b</t>
-  </si>
-  <si>
-    <t>lcm(a,b) is between max(a,b) and *****</t>
-  </si>
-  <si>
-    <t>a*b</t>
-  </si>
-  <si>
-    <t>gcf(a,b) ***** lcm(a,b) when a=b</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>gcf(a,b) = lcm(a,b) when a=*****</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>gcf(a,b) ***** lcm(a,b) when not a=b</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>gcf(a,b) &lt; lcm(a,b) when not a=*****</t>
-  </si>
-  <si>
-    <t>a and b are prime numbers =&gt; lcm(a,b)=*****</t>
-  </si>
-  <si>
-    <t>lcm(a,b) = (*****) / gcf(a,b)</t>
-  </si>
-  <si>
-    <t>lcm(a,b) = (a*b) / *****</t>
-  </si>
-  <si>
-    <t>gcf(a,b)</t>
-  </si>
-  <si>
-    <t>Generate #10 Least Common Multiples</t>
-  </si>
-  <si>
-    <t>200812</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -313,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -630,550 +466,762 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A11" ySplit="1"/>
-      <selection activeCell="E24" pane="bottomLeft" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>998</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Multiple is a product of ***** a natural number by any other natural number</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>multiplying</t>
+        </is>
       </c>
       <c r="F2" s="9" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>999</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Multiple is a product of multiplying a natural number by any other ***** number</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>1000</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Multiples(n) = {***** for n*x, when n,x are natural numbers}</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>1001</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>18</v>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>*****(n) = {x for n*x, when n,x are natural numbers}</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>multiples</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="27.6" customHeight="1">
       <c r="A6" t="n">
         <v>1002</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
+      <c r="C6" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="inlineStr">
+        <is>
+          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
       </c>
       <c r="F6" s="6" t="n"/>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="7" spans="1:7">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="27.6" customHeight="1">
       <c r="A7" t="n">
         <v>1003</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="8" spans="1:7">
+      <c r="C7" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>natural</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="27.6" customHeight="1">
       <c r="A8" t="n">
         <v>1004</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="9" spans="1:7">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Every natural number has an ***** list of multiples</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>infinite</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="27.6" customHeight="1">
       <c r="A9" t="n">
         <v>1005</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="10" spans="1:7">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Every natural number has an infinite list of *****</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>multiples</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="27.6" customHeight="1">
       <c r="A10" t="n">
         <v>1006</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="11" spans="1:7">
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>***** ***** = Multiples that are the same for two or more numbers</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>common multiples</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="27.6" customHeight="1">
       <c r="A11" t="n">
         <v>1007</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="C11" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Common Multiples = Multiples that are the ***** for two or more numbers</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>same</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="n">
         <v>1008</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Abbreviate of lcm</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>least common multiple</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="n">
         <v>1009</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>l*****(a,b) = Min(Common_Multiples(a,b))</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>lcm</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="n">
         <v>1010</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="15" spans="1:7">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>lcm(a,b) = *****(common_multiples(a,b))</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="27.6" customHeight="1">
       <c r="A15" t="n">
         <v>1011</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="16" spans="1:7">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>common_multiples(a,b) is between ***** and infinity</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>max(a,b)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="27.6" customHeight="1">
       <c r="A16" t="n">
         <v>1012</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>common_multiples(a,b) is between max(a,b) and *****</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>infinity</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="n">
         <v>1013</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>lcm(a,b) is between ***** and a*b</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>max(a,b)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="n">
         <v>1014</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>lcm(a,b) is between max(a,b) and *****</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>a*b</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="n">
         <v>1015</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b) ***** lcm(a,b) when a=b</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="n">
         <v>1016</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b) = lcm(a,b) when a=*****</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="n">
         <v>1017</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b) ***** lcm(a,b) when not a=b</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="n">
         <v>1018</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b) &lt; lcm(a,b) when not a=*****</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="n">
         <v>1019</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="C23" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>a and b are prime numbers =&gt; lcm(a,b)=*****</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>a*b</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="n">
         <v>1020</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>lcm(a,b) = (*****) / gcf(a,b)</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>a*b</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="n">
         <v>1021</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>lcm(a,b) = (a*b) / *****</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>gcf(a,b)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200811</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="n">
         <v>1022</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7"/>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Generate #10 Least Common Multiples</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1185,7 +1233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1197,7 +1245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1208,7 +1256,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -1218,7 +1286,6 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -535,8 +535,8 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -595,7 +595,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
@@ -649,7 +649,7 @@
         <v>1000</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="D5" s="6" t="inlineStr">
@@ -707,7 +707,7 @@
         <v>1002</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>1003</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
@@ -792,7 +792,7 @@
         <v>1005</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1283,6 +1215,54 @@
       <c r="G26" t="inlineStr">
         <is>
           <t>200812</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Image: Common Multiples A=B</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Image: Common Multiples A is Factor of B</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1">
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Image: Common Multiples A and B are not Coprime</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="27.6" customHeight="1">
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Image: Common Multiples A and B are Coprime</t>
         </is>
       </c>
     </row>

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Multiple is a product of ***** a natural number by any other natural number</t>
+          <t>Multiple is a product of ************** a natural number by any other natural number</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Multiple is a product of multiplying a natural number by any other ***** number</t>
+          <t>Multiple is a product of multiplying a natural number by any other ********* number</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -590,7 +658,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Multiples(n) = {***** for n*x, when n,x are natural numbers}</t>
+          <t>Multiples(n) = { for n*x, when n,x are natural numbers}</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -619,7 +687,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>*****(n) = {x for n*x, when n,x are natural numbers}</t>
+          <t>*******************(n) = {x for n*x, when n,x are natural numbers}</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -648,7 +716,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
+          <t>Multiples(n) = {x for n*x, when n,x are ********* numbers}</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -677,7 +745,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
+          <t>Multiples(n) = {x for n*x, when n,x are ********* numbers}</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -705,7 +773,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Every natural number has an ***** list of multiples</t>
+          <t>Every natural number has an ************** list of multiples</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -733,7 +801,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Every natural number has an infinite list of *****</t>
+          <t>Every natural number has an infinite list of *****************</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -789,7 +857,7 @@
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>Common Multiples = Multiples that are the ***** for two or more numbers</t>
+          <t>Common Multiples = Multiples that are the **** for two or more numbers</t>
         </is>
       </c>
       <c r="E11" s="5" t="inlineStr">
@@ -845,7 +913,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>l*****(a,b) = Min(Common_Multiples(a,b))</t>
+          <t>l**(a,b) = Min(Common_Multiples(a,b))</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -873,7 +941,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) = *****(common_multiples(a,b))</t>
+          <t>lcm(a,b) = ***(common_multiples(a,b))</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -901,7 +969,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>common_multiples(a,b) is between ***** and infinity</t>
+          <t>common_multiples(a,b) is between ************** and infinity</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -929,7 +997,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>common_multiples(a,b) is between max(a,b) and *****</t>
+          <t>common_multiples(a,b) is between max(a,b) and **************</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -957,7 +1025,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) is between ***** and a*b</t>
+          <t>lcm(a,b) is between ************** and a*b</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -985,7 +1053,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) is between max(a,b) and *****</t>
+          <t>lcm(a,b) is between max(a,b) and ***</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1013,7 +1081,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) ***** lcm(a,b) when a=b</t>
+          <t>gcf(a,b) * lcm(a,b) when a=b</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1041,7 +1109,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) = lcm(a,b) when a=*****</t>
+          <t>gcf(a,b) = lcm(a,b) when a=</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1069,7 +1137,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) ***** lcm(a,b) when not a=b</t>
+          <t>gcf(a,b) * lcm(a,b) when not a=b</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1097,7 +1165,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>gcf(a,b) &lt; lcm(a,b) when not a=*****</t>
+          <t>gcf(a,b) &lt; lcm(a,b) when not a=</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1125,7 +1193,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>a and b are prime numbers =&gt; lcm(a,b)=*****</t>
+          <t>a and b are prime numbers =&gt; lcm(a,b)=**</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1153,7 +1221,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) = ***** / gcf(a,b)</t>
+          <t>lcm(a,b) = *** / gcf(a,b)</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1181,7 +1249,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) = (a*b) / *****</t>
+          <t>lcm(a,b) = (a*b) / **************</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">

--- a/Questions/Mathematics/Numbers/Multiples.xlsx
+++ b/Questions/Mathematics/Numbers/Multiples.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -600,7 +532,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Multiple is a product of ************** a natural number by any other natural number</t>
+          <t>Multiple is a product of ***** a natural number by any other natural number</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -629,7 +561,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Multiple is a product of multiplying a natural number by any other ********* number</t>
+          <t>Multiple is a product of multiplying a natural number by any other ***** number</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -687,7 +619,7 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>*******************(n) = {x for n*x, when n,x are natural numbers}</t>
+          <t>*****(n) = {x for n*x, when n,x are natural numbers}</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
@@ -716,7 +648,7 @@
       </c>
       <c r="D6" s="6" t="inlineStr">
         <is>
-          <t>Multiples(n) = {x for n*x, when n,x are ********* numbers}</t>
+          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
@@ -745,7 +677,7 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>Multiples(n) = {x for n*x, when n,x are ********* numbers}</t>
+          <t>Multiples(n) = {x for n*x, when n,x are ***** numbers}</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -773,7 +705,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Every natural number has an ************** list of multiples</t>
+          <t>Every natural number has an ***** list of multiples</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -801,7 +733,7 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>Every natural number has an infinite list of *****************</t>
+          <t>Every natural number has an infinite list of *****</t>
         </is>
       </c>
       <c r="E9" s="5" t="inlineStr">
@@ -969,7 +901,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>common_multiples(a,b) is between ************** and infinity</t>
+          <t>common_multiples(a,b) is between ***** and infinity</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -997,7 +929,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>common_multiples(a,b) is between max(a,b) and **************</t>
+          <t>common_multiples(a,b) is between max(a,b) and *****</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -1025,7 +957,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) is between ************** and a*b</t>
+          <t>lcm(a,b) is between ***** and a*b</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1249,7 +1181,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>lcm(a,b) = (a*b) / **************</t>
+          <t>lcm(a,b) = (a*b) / *****</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
